--- a/data/trans_orig/P56S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50EBE24-6483-40E7-A22C-1543F861DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA19283B-CA29-4DEB-BBF9-F58114BB9B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8FA03E9-6108-40EA-A3C2-8DCE0E3D15E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{743E4CFD-E899-43D6-9DBB-453653E9652E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="552">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,06%)</t>
   </si>
@@ -608,1108 +608,1087 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>36,72%</t>
+    <t>36,59%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>10,59%</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -2127,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CCE4AC-D758-4CEB-9233-907C5D2A5C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4EB6DB-C498-4897-BD47-9F9D9775D9D5}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6491,7 +6470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2054EB8C-6183-4406-9A06-0B525A11AD81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E4607-3C45-4D0F-81D4-94DE630BFE43}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11135,7 +11114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6277981-6981-4B8A-90BF-32B49AC3DC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F218A4-4DAC-4824-8146-5256D86A3B07}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15719,7 +15698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0122A7-3C7E-4D39-A50B-3C74B11C5237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8309C2-9F85-4851-A331-88E9393A02E9}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16565,7 +16544,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -16574,13 +16553,13 @@
         <v>7315</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -16589,13 +16568,13 @@
         <v>8271</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -16661,13 +16640,13 @@
         <v>1880</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -16676,13 +16655,13 @@
         <v>8284</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -16691,13 +16670,13 @@
         <v>10164</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -16712,13 +16691,13 @@
         <v>2810</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -16742,13 +16721,13 @@
         <v>2810</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -16867,13 +16846,13 @@
         <v>777</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -16897,13 +16876,13 @@
         <v>777</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -16918,13 +16897,13 @@
         <v>658</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -16933,13 +16912,13 @@
         <v>437</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -16948,13 +16927,13 @@
         <v>1096</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16975,7 +16954,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -17005,7 +16984,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -17020,13 +16999,13 @@
         <v>4460</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -17035,13 +17014,13 @@
         <v>7117</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -17050,13 +17029,13 @@
         <v>11576</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -17071,13 +17050,13 @@
         <v>1722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -17086,13 +17065,13 @@
         <v>4442</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -17101,13 +17080,13 @@
         <v>6164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -17128,7 +17107,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -17137,13 +17116,13 @@
         <v>1224</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -17152,13 +17131,13 @@
         <v>1224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -17173,13 +17152,13 @@
         <v>2571</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -17188,13 +17167,13 @@
         <v>1537</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -17203,13 +17182,13 @@
         <v>4109</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -17224,13 +17203,13 @@
         <v>694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -17239,13 +17218,13 @@
         <v>994</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -17254,13 +17233,13 @@
         <v>1688</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>320</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -17281,7 +17260,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -17311,7 +17290,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -17394,13 +17373,13 @@
         <v>396</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -17415,7 +17394,7 @@
         <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -17451,7 +17430,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -17466,7 +17445,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -17502,7 +17481,7 @@
         <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -17517,7 +17496,7 @@
         <v>24</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -17532,13 +17511,13 @@
         <v>1571</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -17547,13 +17526,13 @@
         <v>5768</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -17562,13 +17541,13 @@
         <v>7338</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -17589,7 +17568,7 @@
         <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -17598,13 +17577,13 @@
         <v>2720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -17613,13 +17592,13 @@
         <v>3365</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -17634,13 +17613,13 @@
         <v>688</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -17655,7 +17634,7 @@
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -17664,13 +17643,13 @@
         <v>688</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -17685,13 +17664,13 @@
         <v>592</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -17700,13 +17679,13 @@
         <v>894</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -17715,13 +17694,13 @@
         <v>1485</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -17751,13 +17730,13 @@
         <v>445</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -17766,13 +17745,13 @@
         <v>445</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -17808,7 +17787,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -17823,7 +17802,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -17906,13 +17885,13 @@
         <v>528</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -17921,13 +17900,13 @@
         <v>528</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -17963,7 +17942,7 @@
         <v>24</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -17978,7 +17957,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -18014,7 +17993,7 @@
         <v>24</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -18029,7 +18008,7 @@
         <v>24</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -18047,7 +18026,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>28</v>
@@ -18059,13 +18038,13 @@
         <v>4300</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -18074,13 +18053,13 @@
         <v>5882</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -18110,13 +18089,13 @@
         <v>729</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -18125,13 +18104,13 @@
         <v>729</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -18161,13 +18140,13 @@
         <v>430</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -18176,13 +18155,13 @@
         <v>430</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -18212,13 +18191,13 @@
         <v>1176</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -18227,13 +18206,13 @@
         <v>1176</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -18263,13 +18242,13 @@
         <v>427</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -18278,13 +18257,13 @@
         <v>427</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -18320,7 +18299,7 @@
         <v>24</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -18335,7 +18314,7 @@
         <v>24</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -18409,7 +18388,7 @@
         <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -18424,7 +18403,7 @@
         <v>24</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -18439,7 +18418,7 @@
         <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -18460,7 +18439,7 @@
         <v>24</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -18475,7 +18454,7 @@
         <v>24</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -18490,7 +18469,7 @@
         <v>24</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -18505,13 +18484,13 @@
         <v>361</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -18526,7 +18505,7 @@
         <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -18535,13 +18514,13 @@
         <v>361</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -18556,13 +18535,13 @@
         <v>1702</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H57" s="7">
         <v>22</v>
@@ -18571,13 +18550,13 @@
         <v>7943</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M57" s="7">
         <v>26</v>
@@ -18586,13 +18565,13 @@
         <v>9645</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -18607,13 +18586,13 @@
         <v>2176</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -18622,13 +18601,13 @@
         <v>1318</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>406</v>
+        <v>208</v>
       </c>
       <c r="M58" s="7">
         <v>9</v>
@@ -18637,13 +18616,13 @@
         <v>3493</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -18664,7 +18643,7 @@
         <v>24</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -18679,7 +18658,7 @@
         <v>24</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -18694,7 +18673,7 @@
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -18709,13 +18688,13 @@
         <v>1789</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H60" s="7">
         <v>6</v>
@@ -18724,13 +18703,13 @@
         <v>2308</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M60" s="7">
         <v>10</v>
@@ -18739,13 +18718,13 @@
         <v>4097</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -18766,7 +18745,7 @@
         <v>24</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -18775,13 +18754,13 @@
         <v>787</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -18790,13 +18769,13 @@
         <v>787</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -18817,7 +18796,7 @@
         <v>24</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -18832,7 +18811,7 @@
         <v>24</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -18847,7 +18826,7 @@
         <v>24</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -18936,7 +18915,7 @@
         <v>24</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -18951,7 +18930,7 @@
         <v>24</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -18987,7 +18966,7 @@
         <v>24</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -19002,7 +18981,7 @@
         <v>24</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -19032,13 +19011,13 @@
         <v>583</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -19047,13 +19026,13 @@
         <v>583</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -19068,7 +19047,7 @@
         <v>2165</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>23</v>
@@ -19083,13 +19062,13 @@
         <v>7540</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M67" s="7">
         <v>14</v>
@@ -19098,13 +19077,13 @@
         <v>9705</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -19119,13 +19098,13 @@
         <v>760</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -19134,13 +19113,13 @@
         <v>668</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M68" s="7">
         <v>2</v>
@@ -19149,13 +19128,13 @@
         <v>1429</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -19185,13 +19164,13 @@
         <v>2648</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M69" s="7">
         <v>4</v>
@@ -19200,13 +19179,13 @@
         <v>2648</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -19236,13 +19215,13 @@
         <v>4531</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M70" s="7">
         <v>7</v>
@@ -19251,13 +19230,13 @@
         <v>4531</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -19272,13 +19251,13 @@
         <v>825</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -19287,13 +19266,13 @@
         <v>623</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M71" s="7">
         <v>2</v>
@@ -19302,13 +19281,13 @@
         <v>1448</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -19344,7 +19323,7 @@
         <v>24</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -19359,7 +19338,7 @@
         <v>24</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -19433,7 +19412,7 @@
         <v>24</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -19442,13 +19421,13 @@
         <v>1020</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -19457,13 +19436,13 @@
         <v>1020</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>280</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -19484,7 +19463,7 @@
         <v>24</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -19514,7 +19493,7 @@
         <v>24</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -19535,7 +19514,7 @@
         <v>24</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -19565,7 +19544,7 @@
         <v>24</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -19580,13 +19559,13 @@
         <v>1429</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H77" s="7">
         <v>9</v>
@@ -19595,13 +19574,13 @@
         <v>6725</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M77" s="7">
         <v>11</v>
@@ -19610,13 +19589,13 @@
         <v>8154</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -19631,13 +19610,13 @@
         <v>2782</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>219</v>
+        <v>434</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H78" s="7">
         <v>10</v>
@@ -19646,13 +19625,13 @@
         <v>6136</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M78" s="7">
         <v>14</v>
@@ -19661,13 +19640,13 @@
         <v>8918</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -19688,7 +19667,7 @@
         <v>24</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
@@ -19697,13 +19676,13 @@
         <v>1267</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -19712,13 +19691,13 @@
         <v>1267</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -19733,13 +19712,13 @@
         <v>4321</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H80" s="7">
         <v>12</v>
@@ -19748,13 +19727,13 @@
         <v>7565</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>486</v>
+        <v>246</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M80" s="7">
         <v>18</v>
@@ -19763,13 +19742,13 @@
         <v>11886</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -19784,13 +19763,13 @@
         <v>1410</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H81" s="7">
         <v>3</v>
@@ -19799,13 +19778,13 @@
         <v>1925</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>495</v>
+        <v>122</v>
       </c>
       <c r="M81" s="7">
         <v>5</v>
@@ -19814,13 +19793,13 @@
         <v>3334</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>496</v>
+        <v>332</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -19841,7 +19820,7 @@
         <v>24</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -19871,7 +19850,7 @@
         <v>24</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -19939,13 +19918,13 @@
         <v>777</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="H84" s="7">
         <v>3</v>
@@ -19954,13 +19933,13 @@
         <v>1943</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M84" s="7">
         <v>4</v>
@@ -19969,13 +19948,13 @@
         <v>2720</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -19990,13 +19969,13 @@
         <v>658</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -20005,13 +19984,13 @@
         <v>437</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="M85" s="7">
         <v>2</v>
@@ -20020,13 +19999,13 @@
         <v>1096</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -20041,13 +20020,13 @@
         <v>361</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -20056,13 +20035,13 @@
         <v>583</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M86" s="7">
         <v>2</v>
@@ -20071,13 +20050,13 @@
         <v>944</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -20092,13 +20071,13 @@
         <v>15373</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>125</v>
+        <v>509</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H87" s="7">
         <v>94</v>
@@ -20107,13 +20086,13 @@
         <v>48382</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M87" s="7">
         <v>117</v>
@@ -20122,13 +20101,13 @@
         <v>63755</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -20143,13 +20122,13 @@
         <v>9783</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="H88" s="7">
         <v>47</v>
@@ -20158,13 +20137,13 @@
         <v>26460</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M88" s="7">
         <v>63</v>
@@ -20173,13 +20152,13 @@
         <v>36242</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -20194,13 +20173,13 @@
         <v>688</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H89" s="7">
         <v>9</v>
@@ -20209,13 +20188,13 @@
         <v>5569</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M89" s="7">
         <v>10</v>
@@ -20224,13 +20203,13 @@
         <v>6257</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>390</v>
+        <v>532</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -20245,13 +20224,13 @@
         <v>11968</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H90" s="7">
         <v>45</v>
@@ -20260,13 +20239,13 @@
         <v>26295</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M90" s="7">
         <v>63</v>
@@ -20275,13 +20254,13 @@
         <v>38263</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>547</v>
+        <v>168</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -20296,13 +20275,13 @@
         <v>5739</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>337</v>
+        <v>544</v>
       </c>
       <c r="H91" s="7">
         <v>10</v>
@@ -20311,13 +20290,13 @@
         <v>5201</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M91" s="7">
         <v>17</v>
@@ -20326,13 +20305,13 @@
         <v>10940</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>555</v>
+        <v>432</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -20353,7 +20332,7 @@
         <v>24</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -20368,7 +20347,7 @@
         <v>24</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -20383,7 +20362,7 @@
         <v>24</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P56S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA19283B-CA29-4DEB-BBF9-F58114BB9B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AF0DB12-D691-4EB5-8493-D5D83D7C1893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{743E4CFD-E899-43D6-9DBB-453653E9652E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F7C849E-0B59-4475-95B9-247D081106AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -200,10 +200,13 @@
     <t>48,76%</t>
   </si>
   <si>
+    <t>87,1%</t>
+  </si>
+  <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>79,79%</t>
+    <t>69,07%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -218,13 +221,13 @@
     <t>25,43%</t>
   </si>
   <si>
-    <t>64,14%</t>
+    <t>63,61%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>47,13%</t>
+    <t>53,62%</t>
   </si>
   <si>
     <t>63,38%</t>
@@ -233,19 +236,19 @@
     <t>17,2%</t>
   </si>
   <si>
-    <t>45,93%</t>
+    <t>44,75%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>63,15%</t>
+    <t>60,29%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>41,8%</t>
+    <t>38,96%</t>
   </si>
   <si>
     <t>36,62%</t>
@@ -254,19 +257,19 @@
     <t>61,82%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>54,98%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -281,7 +284,7 @@
     <t>29,13%</t>
   </si>
   <si>
-    <t>71,99%</t>
+    <t>72,84%</t>
   </si>
   <si>
     <t>33,43%</t>
@@ -293,10 +296,10 @@
     <t>43,4%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>75,0%</t>
@@ -305,7 +308,7 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>52,3%</t>
+    <t>56,26%</t>
   </si>
   <si>
     <t>31,43%</t>
@@ -314,7 +317,7 @@
     <t>14,03%</t>
   </si>
   <si>
-    <t>57,3%</t>
+    <t>57,26%</t>
   </si>
   <si>
     <t>52,69%</t>
@@ -359,13 +362,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>19,48%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>14,48%</t>
+    <t>14,61%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -377,25 +380,25 @@
     <t>23,09%</t>
   </si>
   <si>
-    <t>57,66%</t>
+    <t>57,4%</t>
   </si>
   <si>
     <t>41,39%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>32,57%</t>
@@ -404,858 +407,858 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>66,81%</t>
+    <t>66,98%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>24,13%</t>
+    <t>20,18%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>15,81%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,3%)</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,3%)</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
     <t>33,17%</t>
   </si>
   <si>
@@ -1293,9 +1296,6 @@
   </si>
   <si>
     <t>15,87%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -2106,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4EB6DB-C498-4897-BD47-9F9D9775D9D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714E8B7-7150-49B1-8A78-8DE6983A2B92}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6470,7 +6470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E4607-3C45-4D0F-81D4-94DE630BFE43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D289FF-2046-4A64-910E-35BECD3ED0BA}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7261,7 +7261,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -7276,7 +7276,7 @@
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7451,13 @@
         <v>1109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7466,13 +7466,13 @@
         <v>1109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>28</v>
@@ -7716,7 +7716,7 @@
         <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>28</v>
@@ -8051,7 +8051,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8102,7 +8102,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -8117,7 +8117,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8153,7 +8153,7 @@
         <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>24</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8198,13 @@
         <v>2177</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -8213,13 +8213,13 @@
         <v>2177</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,7 +8234,7 @@
         <v>2021</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>23</v>
@@ -8255,7 +8255,7 @@
         <v>24</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -8264,13 +8264,13 @@
         <v>2021</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8300,13 @@
         <v>1091</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -8315,13 +8315,13 @@
         <v>1091</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
         <v>1168</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>23</v>
@@ -8351,13 +8351,13 @@
         <v>5292</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M40" s="7">
         <v>6</v>
@@ -8366,13 +8366,13 @@
         <v>6460</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8408,7 +8408,7 @@
         <v>24</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8423,7 +8423,7 @@
         <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,7 +8459,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,7 +8578,7 @@
         <v>24</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8629,7 +8629,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8680,7 +8680,7 @@
         <v>24</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,7 +8695,7 @@
         <v>1157</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>23</v>
@@ -8710,7 +8710,7 @@
         <v>992</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>23</v>
@@ -8725,13 +8725,13 @@
         <v>2148</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,7 +8746,7 @@
         <v>1101</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>23</v>
@@ -8761,7 +8761,7 @@
         <v>2100</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
@@ -8776,13 +8776,13 @@
         <v>3201</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8833,7 +8833,7 @@
         <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,13 +8863,13 @@
         <v>992</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -8878,13 +8878,13 @@
         <v>992</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,7 +8899,7 @@
         <v>1035</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>23</v>
@@ -8929,13 +8929,13 @@
         <v>1035</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,7 +8986,7 @@
         <v>24</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,7 +9222,7 @@
         <v>1088</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>23</v>
@@ -9237,7 +9237,7 @@
         <v>2144</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>23</v>
@@ -9273,7 +9273,7 @@
         <v>976</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>23</v>
@@ -9288,7 +9288,7 @@
         <v>976</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>23</v>
@@ -9734,7 +9734,7 @@
         <v>1931</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>23</v>
@@ -9749,13 +9749,13 @@
         <v>1931</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -9887,7 +9887,7 @@
         <v>2133</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>23</v>
@@ -9902,10 +9902,10 @@
         <v>3090</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q70" s="7" t="s">
         <v>26</v>
@@ -10108,7 +10108,7 @@
         <v>1160</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>23</v>
@@ -10414,7 +10414,7 @@
         <v>1091</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>23</v>
@@ -10596,7 +10596,7 @@
         <v>24</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -10605,13 +10605,13 @@
         <v>1160</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -10620,13 +10620,13 @@
         <v>1160</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -10647,7 +10647,7 @@
         <v>24</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>24</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>24</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -10698,7 +10698,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>24</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -10728,7 +10728,7 @@
         <v>24</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -10743,13 +10743,13 @@
         <v>2213</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H87" s="7">
         <v>12</v>
@@ -10758,13 +10758,13 @@
         <v>12708</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M87" s="7">
         <v>14</v>
@@ -10773,13 +10773,13 @@
         <v>14921</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -10794,13 +10794,13 @@
         <v>3122</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H88" s="7">
         <v>5</v>
@@ -10809,13 +10809,13 @@
         <v>6215</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M88" s="7">
         <v>8</v>
@@ -10824,13 +10824,13 @@
         <v>9337</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -10851,7 +10851,7 @@
         <v>24</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -10860,13 +10860,13 @@
         <v>1091</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M89" s="7">
         <v>1</v>
@@ -10875,13 +10875,13 @@
         <v>1091</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -10896,13 +10896,13 @@
         <v>3215</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H90" s="7">
         <v>8</v>
@@ -10911,13 +10911,13 @@
         <v>8417</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M90" s="7">
         <v>11</v>
@@ -10926,13 +10926,13 @@
         <v>11632</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -10947,13 +10947,13 @@
         <v>1035</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -10968,7 +10968,7 @@
         <v>24</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M91" s="7">
         <v>1</v>
@@ -10977,13 +10977,13 @@
         <v>1035</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P91" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -11004,7 +11004,7 @@
         <v>24</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -11013,13 +11013,13 @@
         <v>1109</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M92" s="7">
         <v>1</v>
@@ -11028,13 +11028,13 @@
         <v>1109</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -11114,7 +11114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F218A4-4DAC-4824-8146-5256D86A3B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207E39C5-7373-48A8-9175-C7F3438451DA}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11131,7 +11131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11238,7 +11238,7 @@
         <v>791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
@@ -11268,13 +11268,13 @@
         <v>792</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11391,7 +11391,7 @@
         <v>802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>23</v>
@@ -11406,7 +11406,7 @@
         <v>1211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
@@ -11421,13 +11421,13 @@
         <v>2012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11544,7 +11544,7 @@
         <v>869</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
@@ -11559,7 +11559,7 @@
         <v>2097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
@@ -11574,13 +11574,13 @@
         <v>2966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -12436,7 +12436,7 @@
         <v>1233</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>23</v>
@@ -12589,7 +12589,7 @@
         <v>783</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>23</v>
@@ -12867,7 +12867,7 @@
         <v>845</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
@@ -12897,7 +12897,7 @@
         <v>2130</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
@@ -13071,7 +13071,7 @@
         <v>1928</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>23</v>
@@ -13101,7 +13101,7 @@
         <v>1929</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>23</v>
@@ -13386,7 +13386,7 @@
         <v>1164</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>23</v>
@@ -13401,7 +13401,7 @@
         <v>1164</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>23</v>
@@ -13484,7 +13484,7 @@
         <v>1213</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
@@ -13499,7 +13499,7 @@
         <v>1213</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>23</v>
@@ -14185,13 +14185,13 @@
         <v>1205</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -14200,13 +14200,13 @@
         <v>1205</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14257,7 +14257,7 @@
         <v>24</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14308,7 +14308,7 @@
         <v>24</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14338,13 +14338,13 @@
         <v>1698</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -14353,13 +14353,13 @@
         <v>1698</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -14389,13 +14389,13 @@
         <v>1205</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -14404,13 +14404,13 @@
         <v>1205</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -14461,7 +14461,7 @@
         <v>24</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -14491,13 +14491,13 @@
         <v>1205</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -14506,13 +14506,13 @@
         <v>2204</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -14542,13 +14542,13 @@
         <v>1022</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -14557,13 +14557,13 @@
         <v>1022</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14614,7 +14614,7 @@
         <v>24</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -15174,13 +15174,13 @@
         <v>791</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -15189,13 +15189,13 @@
         <v>1205</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -15204,13 +15204,13 @@
         <v>1996</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -15231,7 +15231,7 @@
         <v>24</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -15246,7 +15246,7 @@
         <v>24</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -15261,7 +15261,7 @@
         <v>24</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -15282,7 +15282,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -15297,7 +15297,7 @@
         <v>24</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -15312,7 +15312,7 @@
         <v>24</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -15327,13 +15327,13 @@
         <v>1646</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H87" s="7">
         <v>4</v>
@@ -15342,13 +15342,13 @@
         <v>5358</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M87" s="7">
         <v>6</v>
@@ -15357,13 +15357,13 @@
         <v>7004</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -15384,7 +15384,7 @@
         <v>24</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H88" s="7">
         <v>2</v>
@@ -15393,13 +15393,13 @@
         <v>2438</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M88" s="7">
         <v>2</v>
@@ -15408,13 +15408,13 @@
         <v>2438</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -15435,7 +15435,7 @@
         <v>24</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -15444,13 +15444,13 @@
         <v>1213</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M89" s="7">
         <v>1</v>
@@ -15459,13 +15459,13 @@
         <v>1213</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -15480,13 +15480,13 @@
         <v>1868</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H90" s="7">
         <v>2</v>
@@ -15495,13 +15495,13 @@
         <v>3302</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M90" s="7">
         <v>4</v>
@@ -15510,13 +15510,13 @@
         <v>5169</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -15531,13 +15531,13 @@
         <v>3521</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -15546,13 +15546,13 @@
         <v>1022</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M91" s="7">
         <v>5</v>
@@ -15561,13 +15561,13 @@
         <v>4542</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -15588,7 +15588,7 @@
         <v>24</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -15603,7 +15603,7 @@
         <v>24</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -15618,7 +15618,7 @@
         <v>24</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -15698,7 +15698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8309C2-9F85-4851-A331-88E9393A02E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2BE29-D836-407D-8926-C204FF08DE23}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15715,7 +15715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -15843,7 +15843,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -15894,7 +15894,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -15909,7 +15909,7 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -15945,7 +15945,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -15960,7 +15960,7 @@
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -15975,7 +15975,7 @@
         <v>730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>23</v>
@@ -15990,13 +15990,13 @@
         <v>2035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -16005,13 +16005,13 @@
         <v>2764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -16026,7 +16026,7 @@
         <v>742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
@@ -16041,13 +16041,13 @@
         <v>3132</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -16056,13 +16056,13 @@
         <v>3874</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -16098,7 +16098,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -16113,7 +16113,7 @@
         <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -16128,7 +16128,7 @@
         <v>815</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
@@ -16149,7 +16149,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -16158,13 +16158,13 @@
         <v>815</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -16200,7 +16200,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -16251,7 +16251,7 @@
         <v>24</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -16266,7 +16266,7 @@
         <v>24</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -16340,7 +16340,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -16355,7 +16355,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -16370,7 +16370,7 @@
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -16391,7 +16391,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -16406,7 +16406,7 @@
         <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -16421,7 +16421,7 @@
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -16442,7 +16442,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -16457,7 +16457,7 @@
         <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -16472,7 +16472,7 @@
         <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -16487,13 +16487,13 @@
         <v>1735</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -16502,13 +16502,13 @@
         <v>6955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -16517,13 +16517,13 @@
         <v>8690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -16538,13 +16538,13 @@
         <v>956</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -16553,13 +16553,13 @@
         <v>7315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -16568,13 +16568,13 @@
         <v>8271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -16595,7 +16595,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -16610,7 +16610,7 @@
         <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -16625,7 +16625,7 @@
         <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -16640,13 +16640,13 @@
         <v>1880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -16655,13 +16655,13 @@
         <v>8284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -16670,13 +16670,13 @@
         <v>10164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -16691,13 +16691,13 @@
         <v>2810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -16712,7 +16712,7 @@
         <v>24</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -16721,13 +16721,13 @@
         <v>2810</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -16748,7 +16748,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -16763,7 +16763,7 @@
         <v>24</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -16778,7 +16778,7 @@
         <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -16846,13 +16846,13 @@
         <v>777</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -16867,7 +16867,7 @@
         <v>24</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -16876,13 +16876,13 @@
         <v>777</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -16897,13 +16897,13 @@
         <v>658</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -16912,13 +16912,13 @@
         <v>437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -16927,13 +16927,13 @@
         <v>1096</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16954,7 +16954,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -16969,7 +16969,7 @@
         <v>24</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -16984,7 +16984,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -16999,13 +16999,13 @@
         <v>4460</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -17014,13 +17014,13 @@
         <v>7117</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -17029,13 +17029,13 @@
         <v>11576</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -17050,13 +17050,13 @@
         <v>1722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -17065,13 +17065,13 @@
         <v>4442</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -17080,13 +17080,13 @@
         <v>6164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -17107,7 +17107,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -17116,13 +17116,13 @@
         <v>1224</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -17131,13 +17131,13 @@
         <v>1224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -17152,13 +17152,13 @@
         <v>2571</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -17167,13 +17167,13 @@
         <v>1537</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -17182,13 +17182,13 @@
         <v>4109</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -17203,13 +17203,13 @@
         <v>694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -17218,13 +17218,13 @@
         <v>994</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -17233,13 +17233,13 @@
         <v>1688</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -17260,7 +17260,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -17275,7 +17275,7 @@
         <v>24</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -17290,7 +17290,7 @@
         <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -17373,13 +17373,13 @@
         <v>396</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -17388,13 +17388,13 @@
         <v>396</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -17430,7 +17430,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -17481,7 +17481,7 @@
         <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -17496,7 +17496,7 @@
         <v>24</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -17511,13 +17511,13 @@
         <v>1571</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -17526,13 +17526,13 @@
         <v>5768</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -17541,13 +17541,13 @@
         <v>7338</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -17562,13 +17562,13 @@
         <v>645</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -17577,13 +17577,13 @@
         <v>2720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -17592,13 +17592,13 @@
         <v>3365</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -17613,13 +17613,13 @@
         <v>688</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -17634,7 +17634,7 @@
         <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -17643,13 +17643,13 @@
         <v>688</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -17664,13 +17664,13 @@
         <v>592</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -17679,13 +17679,13 @@
         <v>894</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -17694,13 +17694,13 @@
         <v>1485</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -17730,13 +17730,13 @@
         <v>445</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -17745,13 +17745,13 @@
         <v>445</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -17787,7 +17787,7 @@
         <v>24</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -17802,7 +17802,7 @@
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -17885,13 +17885,13 @@
         <v>528</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -17900,13 +17900,13 @@
         <v>528</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -17942,7 +17942,7 @@
         <v>24</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -17957,7 +17957,7 @@
         <v>24</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -17993,7 +17993,7 @@
         <v>24</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -18008,7 +18008,7 @@
         <v>24</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -18026,7 +18026,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>28</v>
@@ -18038,13 +18038,13 @@
         <v>4300</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -18053,13 +18053,13 @@
         <v>5882</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -18089,13 +18089,13 @@
         <v>729</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -18104,13 +18104,13 @@
         <v>729</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -18140,13 +18140,13 @@
         <v>430</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -18155,13 +18155,13 @@
         <v>430</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -18191,13 +18191,13 @@
         <v>1176</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -18206,13 +18206,13 @@
         <v>1176</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -18242,13 +18242,13 @@
         <v>427</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -18257,13 +18257,13 @@
         <v>427</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -18299,7 +18299,7 @@
         <v>24</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -18314,7 +18314,7 @@
         <v>24</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -18388,7 +18388,7 @@
         <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -18403,7 +18403,7 @@
         <v>24</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -18418,7 +18418,7 @@
         <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -18439,7 +18439,7 @@
         <v>24</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>24</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -18469,7 +18469,7 @@
         <v>24</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -18484,13 +18484,13 @@
         <v>361</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -18505,7 +18505,7 @@
         <v>24</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -18514,13 +18514,13 @@
         <v>361</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -18535,13 +18535,13 @@
         <v>1702</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>391</v>
+        <v>153</v>
       </c>
       <c r="H57" s="7">
         <v>22</v>
@@ -18550,13 +18550,13 @@
         <v>7943</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M57" s="7">
         <v>26</v>
@@ -18565,13 +18565,13 @@
         <v>9645</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -18586,13 +18586,13 @@
         <v>2176</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -18601,13 +18601,13 @@
         <v>1318</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>401</v>
+        <v>127</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>208</v>
+        <v>404</v>
       </c>
       <c r="M58" s="7">
         <v>9</v>
@@ -18616,13 +18616,13 @@
         <v>3493</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>404</v>
+        <v>198</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -18643,7 +18643,7 @@
         <v>24</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -18658,7 +18658,7 @@
         <v>24</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -18673,7 +18673,7 @@
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -18688,13 +18688,13 @@
         <v>1789</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H60" s="7">
         <v>6</v>
@@ -18703,13 +18703,13 @@
         <v>2308</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M60" s="7">
         <v>10</v>
@@ -18718,13 +18718,13 @@
         <v>4097</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -18745,7 +18745,7 @@
         <v>24</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -18754,13 +18754,13 @@
         <v>787</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -18769,13 +18769,13 @@
         <v>787</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -18796,7 +18796,7 @@
         <v>24</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>24</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -18826,7 +18826,7 @@
         <v>24</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -18915,7 +18915,7 @@
         <v>24</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>418</v>
+        <v>124</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -18966,7 +18966,7 @@
         <v>24</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>418</v>
+        <v>124</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -19017,7 +19017,7 @@
         <v>23</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -19323,7 +19323,7 @@
         <v>24</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>418</v>
+        <v>124</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -19412,7 +19412,7 @@
         <v>24</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -19463,7 +19463,7 @@
         <v>24</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -19478,7 +19478,7 @@
         <v>24</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -19514,7 +19514,7 @@
         <v>24</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -19529,7 +19529,7 @@
         <v>24</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -19667,7 +19667,7 @@
         <v>24</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
@@ -19682,7 +19682,7 @@
         <v>23</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -19712,7 +19712,7 @@
         <v>4321</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>477</v>
@@ -19730,7 +19730,7 @@
         <v>479</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>480</v>
@@ -19784,7 +19784,7 @@
         <v>487</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M81" s="7">
         <v>5</v>
@@ -19793,7 +19793,7 @@
         <v>3334</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>458</v>
@@ -19820,7 +19820,7 @@
         <v>24</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -19835,7 +19835,7 @@
         <v>24</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -20257,7 +20257,7 @@
         <v>540</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q90" s="7" t="s">
         <v>541</v>
@@ -20332,7 +20332,7 @@
         <v>24</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
